--- a/pages/data_list.xlsx
+++ b/pages/data_list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
   <si>
     <t>编号</t>
   </si>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待支付</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -380,9 +384,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +418,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -471,14 +482,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -508,9 +519,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +530,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -865,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>43896</v>
+        <v>43831</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -888,13 +902,13 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="2">
         <v>43862</v>
       </c>
       <c r="K2" s="7">
         <v>7000</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="7">
@@ -929,13 +943,13 @@
       <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="2">
         <v>43948</v>
       </c>
       <c r="K3" s="7">
         <v>6000</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="7">
@@ -970,13 +984,13 @@
       <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="2">
         <v>43938</v>
       </c>
       <c r="K4" s="7">
         <v>6000</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="7">
@@ -1011,13 +1025,13 @@
       <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="2">
         <v>43978</v>
       </c>
       <c r="K5" s="7">
         <v>6000</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
@@ -1052,13 +1066,13 @@
       <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="2">
         <v>43960</v>
       </c>
       <c r="K6" s="7">
         <v>6000</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="7">
@@ -1093,13 +1107,13 @@
       <c r="I7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="2">
         <v>43929</v>
       </c>
       <c r="K7" s="7">
         <v>6000</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="7">
@@ -1134,13 +1148,13 @@
       <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="2">
         <v>43978</v>
       </c>
       <c r="K8" s="7">
         <v>6000</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
@@ -1175,13 +1189,13 @@
       <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="2">
         <v>43959</v>
       </c>
       <c r="K9" s="7">
         <v>6000</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="7">
@@ -1216,13 +1230,13 @@
       <c r="I10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="2">
         <v>43974</v>
       </c>
       <c r="K10" s="7">
         <v>6000</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="7">
@@ -1257,13 +1271,13 @@
       <c r="I11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="2">
         <v>43976</v>
       </c>
       <c r="K11" s="7">
         <v>6000</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
@@ -1298,13 +1312,13 @@
       <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="2">
         <v>43987</v>
       </c>
       <c r="K12" s="7">
         <v>7000</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="7">
@@ -1339,13 +1353,13 @@
       <c r="I13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="2">
         <v>43987</v>
       </c>
       <c r="K13" s="7">
         <v>8000</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="7">
@@ -1380,13 +1394,15 @@
       <c r="I14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="2">
         <v>43987</v>
       </c>
       <c r="K14" s="7">
         <v>6000</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M14" s="7">
         <v>2000</v>
       </c>
@@ -1419,13 +1435,15 @@
       <c r="I15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="2">
         <v>43987</v>
       </c>
       <c r="K15" s="7">
         <v>8000</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M15" s="7">
         <v>4500</v>
       </c>
@@ -1454,7 +1472,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="12"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="7">
         <v>6000</v>
       </c>
@@ -1491,13 +1509,15 @@
       <c r="I17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="2">
         <v>44018</v>
       </c>
       <c r="K17" s="7">
         <v>8000</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M17" s="7">
         <v>4500</v>
       </c>
@@ -1530,11 +1550,13 @@
       <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="7">
         <v>8000</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="M18" s="7">
         <v>4500</v>
       </c>
@@ -1567,11 +1589,13 @@
       <c r="I19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="7">
         <v>6000</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="M19" s="7">
         <v>2000</v>
       </c>
@@ -1600,7 +1624,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="7">
         <v>6000</v>
       </c>
@@ -1633,7 +1657,7 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="7">
         <v>6000</v>
       </c>
@@ -1668,7 +1692,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="7">
         <v>6000</v>
       </c>
@@ -1701,7 +1725,7 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="12"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="7">
         <v>7000</v>
       </c>
@@ -1736,7 +1760,7 @@
         <v>7.1</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="12"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="7">
         <v>6000</v>
       </c>
@@ -1773,11 +1797,13 @@
       <c r="I25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="7">
         <v>8000</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="M25" s="7">
         <v>4500</v>
       </c>
@@ -1810,11 +1836,13 @@
       <c r="I26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="7">
         <v>6000</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M26" s="7">
         <v>2500</v>
       </c>
@@ -1845,11 +1873,11 @@
         <v>66</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="7">
         <v>8000</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="7">
         <v>4500</v>
       </c>
@@ -1880,11 +1908,11 @@
         <v>66</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="7">
         <v>8000</v>
       </c>
-      <c r="L28" s="14"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="7">
         <v>4500</v>
       </c>
@@ -1917,11 +1945,13 @@
       <c r="I29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="7">
         <v>8000</v>
       </c>
-      <c r="L29" s="14"/>
+      <c r="L29" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="M29" s="7">
         <v>4500</v>
       </c>
@@ -1952,7 +1982,7 @@
         <v>70</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="7">
         <v>6000</v>
       </c>
@@ -1985,7 +2015,7 @@
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="7">
         <v>6000</v>
       </c>
@@ -2022,11 +2052,13 @@
       <c r="I32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="7">
         <v>8000</v>
       </c>
-      <c r="L32" s="14"/>
+      <c r="L32" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="M32" s="7">
         <v>4500</v>
       </c>
@@ -2057,11 +2089,11 @@
         <v>74</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="12"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="7">
         <v>8000</v>
       </c>
-      <c r="L33" s="14"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="7">
         <v>4500</v>
       </c>
@@ -2092,7 +2124,7 @@
         <v>74</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="12"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="7">
         <v>6000</v>
       </c>
@@ -2125,7 +2157,7 @@
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="7">
         <v>8500</v>
       </c>
@@ -2158,7 +2190,7 @@
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="12"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="7">
         <v>6000</v>
       </c>
@@ -2193,11 +2225,11 @@
         <v>74</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="12"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="7">
         <v>8000</v>
       </c>
-      <c r="L37" s="14"/>
+      <c r="L37" s="13"/>
       <c r="M37" s="7">
         <v>4500</v>
       </c>
@@ -2228,7 +2260,7 @@
         <v>86</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="12"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="7">
         <v>6000</v>
       </c>
@@ -2261,11 +2293,11 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="7">
         <v>7000</v>
       </c>
-      <c r="L39" s="15"/>
+      <c r="L39" s="14"/>
       <c r="M39" s="7">
         <v>3000</v>
       </c>
@@ -2294,11 +2326,11 @@
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="7">
         <v>6000</v>
       </c>
-      <c r="L40" s="16"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="7">
         <v>2500</v>
       </c>
@@ -2327,11 +2359,11 @@
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="7">
         <v>6000</v>
       </c>
-      <c r="L41" s="16"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="7">
         <v>2500</v>
       </c>
@@ -2362,11 +2394,11 @@
         <v>70</v>
       </c>
       <c r="I42" s="7"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="7">
         <v>8000</v>
       </c>
-      <c r="L42" s="14"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="7">
         <v>4500</v>
       </c>
@@ -2397,7 +2429,7 @@
         <v>74</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="7">
         <v>6000</v>
       </c>
@@ -2430,7 +2462,7 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="12"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="7">
         <v>6000</v>
       </c>
@@ -2463,7 +2495,7 @@
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="12"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="7">
         <v>6000</v>
       </c>
@@ -2496,7 +2528,7 @@
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="12"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="7">
         <v>6000</v>
       </c>
@@ -2529,7 +2561,7 @@
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="12"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="7">
         <v>6000</v>
       </c>
@@ -2562,7 +2594,7 @@
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="7">
         <v>6000</v>
       </c>
@@ -2595,7 +2627,7 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="7">
         <v>6000</v>
       </c>
@@ -2628,7 +2660,7 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="7">
         <v>6000</v>
       </c>
@@ -2661,7 +2693,7 @@
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="12"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="7">
         <v>6000</v>
       </c>
@@ -2694,11 +2726,11 @@
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="12"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="7">
         <v>8000</v>
       </c>
-      <c r="L52" s="14"/>
+      <c r="L52" s="13"/>
       <c r="M52" s="7">
         <v>4500</v>
       </c>
@@ -2727,11 +2759,11 @@
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="12"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="7">
         <v>8000</v>
       </c>
-      <c r="L53" s="14"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="7">
         <v>4500</v>
       </c>
@@ -2760,11 +2792,11 @@
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="7">
         <v>8000</v>
       </c>
-      <c r="L54" s="14"/>
+      <c r="L54" s="13"/>
       <c r="M54" s="7">
         <v>4500</v>
       </c>
@@ -2793,11 +2825,11 @@
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="7">
         <v>6000</v>
       </c>
-      <c r="L55" s="14"/>
+      <c r="L55" s="13"/>
       <c r="M55" s="7">
         <v>2700</v>
       </c>
@@ -2826,11 +2858,11 @@
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="12"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="7">
         <v>8500</v>
       </c>
-      <c r="L56" s="14"/>
+      <c r="L56" s="13"/>
       <c r="M56" s="7">
         <v>4500</v>
       </c>
@@ -2859,11 +2891,11 @@
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="7">
         <v>8500</v>
       </c>
-      <c r="L57" s="14"/>
+      <c r="L57" s="13"/>
       <c r="M57" s="7">
         <v>4500</v>
       </c>
@@ -2892,11 +2924,11 @@
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="7">
         <v>8500</v>
       </c>
-      <c r="L58" s="14"/>
+      <c r="L58" s="13"/>
       <c r="M58" s="7">
         <v>4500</v>
       </c>
@@ -2925,7 +2957,7 @@
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="7">
         <v>8500</v>
       </c>
@@ -2958,7 +2990,7 @@
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="12"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="7">
         <v>6000</v>
       </c>
@@ -2978,9 +3010,9 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="12"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="14"/>
+      <c r="L61" s="13"/>
       <c r="M61" s="7"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -2994,9 +3026,9 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="14"/>
+      <c r="L62" s="13"/>
       <c r="M62" s="7"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3010,9 +3042,9 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="12"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="14"/>
+      <c r="L63" s="13"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3026,9 +3058,9 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="7"/>
-      <c r="J64" s="12"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="14"/>
+      <c r="L64" s="13"/>
       <c r="M64" s="7"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3042,9 +3074,9 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="12"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="14"/>
+      <c r="L65" s="13"/>
       <c r="M65" s="7"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3058,9 +3090,9 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="12"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="14"/>
+      <c r="L66" s="13"/>
       <c r="M66" s="7"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3074,9 +3106,9 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="12"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="14"/>
+      <c r="L67" s="13"/>
       <c r="M67" s="7"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -3090,9 +3122,9 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="14"/>
+      <c r="L68" s="13"/>
       <c r="M68" s="7"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -3106,9 +3138,9 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="12"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="14"/>
+      <c r="L69" s="13"/>
       <c r="M69" s="7"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -3122,9 +3154,9 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="2"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="14"/>
+      <c r="L70" s="13"/>
       <c r="M70" s="7"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -3138,9 +3170,9 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="12"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="14"/>
+      <c r="L71" s="13"/>
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -3154,9 +3186,9 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="12"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="14"/>
+      <c r="L72" s="13"/>
       <c r="M72" s="7"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3170,9 +3202,9 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="12"/>
+      <c r="J73" s="2"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="14"/>
+      <c r="L73" s="13"/>
       <c r="M73" s="7"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3186,9 +3218,9 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="12"/>
+      <c r="J74" s="2"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="14"/>
+      <c r="L74" s="13"/>
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -3202,9 +3234,9 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="12"/>
+      <c r="J75" s="2"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="14"/>
+      <c r="L75" s="13"/>
       <c r="M75" s="7"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -3218,9 +3250,9 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="12"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="14"/>
+      <c r="L76" s="13"/>
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -3234,9 +3266,9 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="7"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="14"/>
+      <c r="L77" s="13"/>
       <c r="M77" s="7"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -3250,9 +3282,9 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="12"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="14"/>
+      <c r="L78" s="13"/>
       <c r="M78" s="7"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3266,9 +3298,9 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="12"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="13"/>
       <c r="M79" s="7"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3282,9 +3314,9 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="12"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="13"/>
       <c r="M80" s="7"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3298,9 +3330,9 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="12"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="13"/>
       <c r="M81" s="7"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3314,9 +3346,9 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="12"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="13"/>
       <c r="M82" s="7"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3330,9 +3362,9 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="12"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="13"/>
       <c r="M83" s="7"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3346,9 +3378,9 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="12"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="13"/>
       <c r="M84" s="7"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -3362,9 +3394,9 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="12"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="13"/>
       <c r="M85" s="7"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -3378,9 +3410,9 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="12"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="13"/>
       <c r="M86" s="7"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -3394,9 +3426,9 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="12"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="13"/>
       <c r="M87" s="7"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -3410,9 +3442,9 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="12"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="13"/>
       <c r="M88" s="7"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3426,9 +3458,9 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="12"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="13"/>
       <c r="M89" s="7"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3442,9 +3474,9 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="7"/>
-      <c r="J90" s="12"/>
+      <c r="J90" s="2"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="14"/>
+      <c r="L90" s="13"/>
       <c r="M90" s="7"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3458,9 +3490,9 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="7"/>
-      <c r="J91" s="12"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="13"/>
       <c r="M91" s="7"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -3474,9 +3506,9 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="12"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="14"/>
+      <c r="L92" s="13"/>
       <c r="M92" s="7"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -3490,9 +3522,9 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="7"/>
-      <c r="J93" s="12"/>
+      <c r="J93" s="2"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="14"/>
+      <c r="L93" s="13"/>
       <c r="M93" s="7"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3506,9 +3538,9 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="7"/>
-      <c r="J94" s="12"/>
+      <c r="J94" s="2"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="14"/>
+      <c r="L94" s="13"/>
       <c r="M94" s="7"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -3522,9 +3554,9 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="7"/>
-      <c r="J95" s="12"/>
+      <c r="J95" s="2"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="14"/>
+      <c r="L95" s="13"/>
       <c r="M95" s="7"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3538,9 +3570,9 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="7"/>
-      <c r="J96" s="12"/>
+      <c r="J96" s="2"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="14"/>
+      <c r="L96" s="13"/>
       <c r="M96" s="7"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -3554,9 +3586,9 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="7"/>
-      <c r="J97" s="12"/>
+      <c r="J97" s="2"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="14"/>
+      <c r="L97" s="13"/>
       <c r="M97" s="7"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -3570,9 +3602,9 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="7"/>
-      <c r="J98" s="12"/>
+      <c r="J98" s="2"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="14"/>
+      <c r="L98" s="13"/>
       <c r="M98" s="7"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -3586,9 +3618,9 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="12"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="14"/>
+      <c r="L99" s="13"/>
       <c r="M99" s="7"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -3602,9 +3634,9 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="7"/>
-      <c r="J100" s="12"/>
+      <c r="J100" s="2"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="14"/>
+      <c r="L100" s="13"/>
       <c r="M100" s="7"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -3618,9 +3650,9 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="12"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="14"/>
+      <c r="L101" s="13"/>
       <c r="M101" s="7"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -3634,9 +3666,9 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="7"/>
-      <c r="J102" s="12"/>
+      <c r="J102" s="2"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="14"/>
+      <c r="L102" s="13"/>
       <c r="M102" s="7"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -3650,9 +3682,9 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="7"/>
-      <c r="J103" s="12"/>
+      <c r="J103" s="2"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="14"/>
+      <c r="L103" s="13"/>
       <c r="M103" s="7"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -3666,9 +3698,9 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="7"/>
-      <c r="J104" s="12"/>
+      <c r="J104" s="2"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="14"/>
+      <c r="L104" s="13"/>
       <c r="M104" s="7"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -3682,9 +3714,9 @@
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="7"/>
-      <c r="J105" s="12"/>
+      <c r="J105" s="2"/>
       <c r="K105" s="7"/>
-      <c r="L105" s="14"/>
+      <c r="L105" s="13"/>
       <c r="M105" s="7"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -3698,9 +3730,9 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="7"/>
-      <c r="J106" s="12"/>
+      <c r="J106" s="2"/>
       <c r="K106" s="7"/>
-      <c r="L106" s="14"/>
+      <c r="L106" s="13"/>
       <c r="M106" s="7"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -3712,9 +3744,9 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="7"/>
-      <c r="J107" s="12"/>
+      <c r="J107" s="2"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="14"/>
+      <c r="L107" s="13"/>
       <c r="M107" s="7"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -3726,9 +3758,9 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="12"/>
+      <c r="J108" s="2"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="14"/>
+      <c r="L108" s="13"/>
       <c r="M108" s="7"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -3740,9 +3772,9 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="7"/>
-      <c r="J109" s="12"/>
+      <c r="J109" s="2"/>
       <c r="K109" s="7"/>
-      <c r="L109" s="14"/>
+      <c r="L109" s="13"/>
       <c r="M109" s="7"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -3754,9 +3786,9 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="7"/>
-      <c r="J110" s="12"/>
+      <c r="J110" s="2"/>
       <c r="K110" s="7"/>
-      <c r="L110" s="14"/>
+      <c r="L110" s="13"/>
       <c r="M110" s="7"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -3768,9 +3800,9 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="7"/>
-      <c r="J111" s="12"/>
+      <c r="J111" s="2"/>
       <c r="K111" s="7"/>
-      <c r="L111" s="14"/>
+      <c r="L111" s="13"/>
       <c r="M111" s="7"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -3782,9 +3814,9 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="7"/>
-      <c r="J112" s="12"/>
+      <c r="J112" s="2"/>
       <c r="K112" s="7"/>
-      <c r="L112" s="14"/>
+      <c r="L112" s="13"/>
       <c r="M112" s="7"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -3796,9 +3828,9 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="7"/>
-      <c r="J113" s="12"/>
+      <c r="J113" s="2"/>
       <c r="K113" s="7"/>
-      <c r="L113" s="14"/>
+      <c r="L113" s="13"/>
       <c r="M113" s="7"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -3810,9 +3842,9 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="7"/>
-      <c r="J114" s="12"/>
+      <c r="J114" s="2"/>
       <c r="K114" s="7"/>
-      <c r="L114" s="14"/>
+      <c r="L114" s="13"/>
       <c r="M114" s="7"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -3824,9 +3856,9 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="7"/>
-      <c r="J115" s="12"/>
+      <c r="J115" s="2"/>
       <c r="K115" s="7"/>
-      <c r="L115" s="14"/>
+      <c r="L115" s="13"/>
       <c r="M115" s="7"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3838,9 +3870,9 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="7"/>
-      <c r="J116" s="12"/>
+      <c r="J116" s="2"/>
       <c r="K116" s="7"/>
-      <c r="L116" s="14"/>
+      <c r="L116" s="13"/>
       <c r="M116" s="7"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -3852,9 +3884,9 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="7"/>
-      <c r="J117" s="12"/>
+      <c r="J117" s="2"/>
       <c r="K117" s="7"/>
-      <c r="L117" s="14"/>
+      <c r="L117" s="13"/>
       <c r="M117" s="7"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3866,9 +3898,9 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="7"/>
-      <c r="J118" s="12"/>
+      <c r="J118" s="2"/>
       <c r="K118" s="7"/>
-      <c r="L118" s="14"/>
+      <c r="L118" s="13"/>
       <c r="M118" s="7"/>
     </row>
   </sheetData>
@@ -3880,6 +3912,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pages/data_list.xlsx
+++ b/pages/data_list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="119">
   <si>
     <t>编号</t>
   </si>
@@ -193,9 +193,6 @@
     <t>陆畅</t>
   </si>
   <si>
-    <t>6.20</t>
-  </si>
-  <si>
     <t>谢成远</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>薛佳学</t>
   </si>
   <si>
-    <t>7.1</t>
-  </si>
-  <si>
     <t>张婷锐</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>王懿行</t>
   </si>
   <si>
-    <t>7.6</t>
-  </si>
-  <si>
     <t>倪朝杰</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>曹中廷</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
     <t>张子悦</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
   </si>
   <si>
     <t>沈子杰</t>
-  </si>
-  <si>
-    <t>7.5</t>
   </si>
   <si>
     <t>达妍如</t>
@@ -376,6 +361,26 @@
   </si>
   <si>
     <t>待支付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-05</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -868,10 +873,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1401,7 +1406,7 @@
         <v>6000</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>2000</v>
@@ -1442,7 +1447,7 @@
         <v>8000</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>4500</v>
@@ -1516,7 +1521,7 @@
         <v>8000</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>4500</v>
@@ -1555,7 +1560,7 @@
         <v>8000</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>4500</v>
@@ -1594,7 +1599,7 @@
         <v>6000</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>2000</v>
@@ -1689,7 +1694,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="2"/>
@@ -1709,7 +1714,7 @@
         <v>43973</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
@@ -1721,7 +1726,7 @@
         <v>40</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -1742,7 +1747,7 @@
         <v>43976</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>31</v>
@@ -1754,10 +1759,10 @@
         <v>23</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="9">
-        <v>7.1</v>
+        <v>61</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="2"/>
@@ -1777,7 +1782,7 @@
         <v>43976</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>42</v>
@@ -1802,7 +1807,7 @@
         <v>8000</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>4500</v>
@@ -1816,7 +1821,7 @@
         <v>43976</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>21</v>
@@ -1841,7 +1846,7 @@
         <v>6000</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>2500</v>
@@ -1855,7 +1860,7 @@
         <v>43987</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>42</v>
@@ -1867,10 +1872,10 @@
         <v>44</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="2"/>
@@ -1890,7 +1895,7 @@
         <v>43987</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>42</v>
@@ -1902,10 +1907,10 @@
         <v>44</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="2"/>
@@ -1925,7 +1930,7 @@
         <v>43990</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>42</v>
@@ -1950,7 +1955,7 @@
         <v>8000</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>4500</v>
@@ -1964,7 +1969,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>21</v>
@@ -1979,7 +1984,7 @@
         <v>48</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="2"/>
@@ -1999,7 +2004,7 @@
         <v>43993</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -2011,7 +2016,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
@@ -2032,7 +2037,7 @@
         <v>43993</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>42</v>
@@ -2057,7 +2062,7 @@
         <v>8000</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M32" s="7">
         <v>4500</v>
@@ -2071,7 +2076,7 @@
         <v>43998</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>42</v>
@@ -2086,7 +2091,7 @@
         <v>48</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="2"/>
@@ -2106,13 +2111,13 @@
         <v>43998</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>23</v>
@@ -2121,7 +2126,7 @@
         <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="2"/>
@@ -2141,19 +2146,19 @@
         <v>44004</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="7"/>
@@ -2174,7 +2179,7 @@
         <v>44004</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
@@ -2186,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
@@ -2207,7 +2212,7 @@
         <v>44005</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>42</v>
@@ -2222,7 +2227,7 @@
         <v>48</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="2"/>
@@ -2242,13 +2247,13 @@
         <v>44005</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>23</v>
@@ -2257,7 +2262,7 @@
         <v>48</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="2"/>
@@ -2277,7 +2282,7 @@
         <v>44005</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>38</v>
@@ -2289,7 +2294,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="7"/>
@@ -2310,7 +2315,7 @@
         <v>44005</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>26</v>
@@ -2322,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="7"/>
@@ -2343,7 +2348,7 @@
         <v>44005</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
@@ -2355,7 +2360,7 @@
         <v>28</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="7"/>
@@ -2376,7 +2381,7 @@
         <v>44005</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>42</v>
@@ -2391,7 +2396,7 @@
         <v>48</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="2"/>
@@ -2411,13 +2416,13 @@
         <v>44005</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>23</v>
@@ -2426,7 +2431,7 @@
         <v>48</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="2"/>
@@ -2446,7 +2451,7 @@
         <v>44010</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>21</v>
@@ -2458,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="7"/>
@@ -2479,7 +2484,7 @@
         <v>44010</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>31</v>
@@ -2491,7 +2496,7 @@
         <v>23</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="7"/>
@@ -2512,7 +2517,7 @@
         <v>44010</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>31</v>
@@ -2524,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
@@ -2545,7 +2550,7 @@
         <v>44011</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>21</v>
@@ -2557,7 +2562,7 @@
         <v>23</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="7"/>
@@ -2578,19 +2583,19 @@
         <v>44015</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="7"/>
@@ -2611,19 +2616,19 @@
         <v>44016</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="7"/>
@@ -2644,19 +2649,19 @@
         <v>44018</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
@@ -2677,19 +2682,19 @@
         <v>44020</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="7"/>
@@ -2710,7 +2715,7 @@
         <v>44020</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>42</v>
@@ -2722,7 +2727,7 @@
         <v>44</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="7"/>
@@ -2743,7 +2748,7 @@
         <v>44020</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>42</v>
@@ -2755,7 +2760,7 @@
         <v>44</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="7"/>
@@ -2776,7 +2781,7 @@
         <v>44020</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>42</v>
@@ -2788,7 +2793,7 @@
         <v>44</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="7"/>
@@ -2809,19 +2814,19 @@
         <v>44020</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="7"/>
@@ -2842,19 +2847,19 @@
         <v>44020</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="7"/>
@@ -2875,19 +2880,19 @@
         <v>44020</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="7"/>
@@ -2908,19 +2913,19 @@
         <v>44021</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="7"/>
@@ -2941,19 +2946,19 @@
         <v>44021</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="7"/>
@@ -2974,7 +2979,7 @@
         <v>44025</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>13</v>
@@ -2986,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="7"/>
@@ -3906,8 +3911,8 @@
   </sheetData>
   <autoFilter ref="A1:M106"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10 I13 I14 I15 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I42 I43 I44 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I2:I9 I11:I12 I16:I19 I20:I23 I40:I41 I45:I46 I61:I1048576">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"草拟中,修改中,待签发,已邮寄,已签发"</formula1>
     </dataValidation>
   </dataValidations>
